--- a/Rotor Calibration.xlsx
+++ b/Rotor Calibration.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d467977129f3e34/527/Programming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evans\OneDrive\527\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2405" documentId="11_F25DC773A252ABDACC1048BF219E5ADE5BDE58E9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{169B40F4-D015-46CF-ABE1-E98E127F5C1C}"/>
+  <xr:revisionPtr revIDLastSave="2646" documentId="11_F25DC773A252ABDACC1048BF219E5ADE5BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{008107CA-C4E9-4977-88C6-F5B3468351C8}"/>
   <bookViews>
-    <workbookView xWindow="-8112" yWindow="3810" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3366" windowWidth="17280" windowHeight="8994" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Rotor 1</t>
   </si>
@@ -1178,6 +1180,636 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="614986128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$K$5,Sheet5!$K$11,Sheet5!$K$17,Sheet5!$K$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$J$5,Sheet5!$J$11,Sheet5!$J$17,Sheet5!$J$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5402777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4769841269841271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.424404761904762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3950396825396827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CBB-4619-A06A-E268595B59A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1240</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$K$4,Sheet5!$K$10,Sheet5!$K$16,Sheet5!$K$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$J$4,Sheet5!$J$10,Sheet5!$J$16,Sheet5!$J$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.461693548387097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3887096774193548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3169354838709677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2874999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3CBB-4619-A06A-E268595B59A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1220</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$K$3,Sheet5!$K$9,Sheet5!$K$15,Sheet5!$K$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$J$3,Sheet5!$J$9,Sheet5!$J$15,Sheet5!$J$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3338114754098358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2706967213114755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2159836065573773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1743852459016391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3CBB-4619-A06A-E268595B59A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$K$2,Sheet5!$K$8,Sheet5!$K$14,Sheet5!$K$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$J$2,Sheet5!$J$8,Sheet5!$J$14,Sheet5!$J$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2639583333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1945833333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.100625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0445833333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3CBB-4619-A06A-E268595B59A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="332252040"/>
+        <c:axId val="332248104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="332252040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332248104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="332248104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332252040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3580,7 +4212,3153 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE03-417F-9637-79DC5F4A1DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AE03-417F-9637-79DC5F4A1DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AE03-417F-9637-79DC5F4A1DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AE03-417F-9637-79DC5F4A1DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385527656"/>
+        <c:axId val="385529624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385527656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385529624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385529624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385527656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$8:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E8E0-460A-91D5-FE4A9A9726B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$8:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E8E0-460A-91D5-FE4A9A9726B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$8:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E8E0-460A-91D5-FE4A9A9726B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$8:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E8E0-460A-91D5-FE4A9A9726B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="649498088"/>
+        <c:axId val="649503992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="649498088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649503992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="649503992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649498088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$14:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF63-4A1C-99C4-EE572DD38451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$14:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EF63-4A1C-99C4-EE572DD38451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$14:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EF63-4A1C-99C4-EE572DD38451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$14:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EF63-4A1C-99C4-EE572DD38451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382909416"/>
+        <c:axId val="382905808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382909416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382905808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382905808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382909416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-02F5-43C0-8558-F376020BACED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-02F5-43C0-8558-F376020BACED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$20:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-02F5-43C0-8558-F376020BACED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-02F5-43C0-8558-F376020BACED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391764592"/>
+        <c:axId val="391768200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391764592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391768200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="391768200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391764592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2639583333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3338114754098358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.461693548387097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5402777777777779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3572-4A42-8DFB-16CF3A37D0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$8:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$J$8:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1945833333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2706967213114755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3887096774193548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4769841269841271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3572-4A42-8DFB-16CF3A37D0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$14:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$J$14:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.100625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2159836065573773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3169354838709677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.424404761904762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3572-4A42-8DFB-16CF3A37D0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$J$20:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0445833333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1743852459016391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3950396825396827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3572-4A42-8DFB-16CF3A37D0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="379627520"/>
+        <c:axId val="379632440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="379627520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379632440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="379632440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379627520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3740,6 +7518,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4256,7 +8234,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4772,7 +8750,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5288,7 +9266,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5804,20 +9782,3116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>640978</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165848</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>76520</xdr:rowOff>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>735105</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>97011</xdr:rowOff>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5955,6 +13029,227 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72A7A7F-C99B-4C60-BA61-8C538542F15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D3A7EF-6956-4B9B-8997-48414C786960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C3553F-C828-49C4-A73F-1F003EC64B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E5D558-12C4-4334-8962-8F6CB3A2A7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B80530-E520-4FE7-BD44-832D8C2F9826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5BC306-998E-41DA-B663-C90038B958A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6251,8 +13546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6550,7 +13845,7 @@
         <v>10800</v>
       </c>
       <c r="G16">
-        <f>A16+U$18</f>
+        <f t="shared" ref="G16:G41" si="0">A16+U$18</f>
         <v>1200</v>
       </c>
       <c r="H16">
@@ -6558,7 +13853,7 @@
         <v>10900</v>
       </c>
       <c r="I16">
-        <f>A16+$U$21</f>
+        <f t="shared" ref="I16:I41" si="1">A16+$U$21</f>
         <v>1200</v>
       </c>
       <c r="J16">
@@ -6566,7 +13861,7 @@
         <v>10883</v>
       </c>
       <c r="K16">
-        <f>A16+U$24</f>
+        <f t="shared" ref="K16:K41" si="2">A16+U$24</f>
         <v>1200</v>
       </c>
       <c r="L16">
@@ -6574,7 +13869,7 @@
         <v>10760</v>
       </c>
       <c r="M16">
-        <f>A16+U$27</f>
+        <f t="shared" ref="M16:M41" si="3">A16+U$27</f>
         <v>1200</v>
       </c>
       <c r="N16">
@@ -6606,39 +13901,39 @@
         <v>10930</v>
       </c>
       <c r="G17">
-        <f>A17+U$18</f>
+        <f t="shared" si="0"/>
         <v>1210</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H41" si="0">B17</f>
+        <f t="shared" ref="H17:H41" si="4">B17</f>
         <v>11045</v>
       </c>
       <c r="I17">
-        <f>A17+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1210</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:J41" si="1">C17</f>
+        <f t="shared" ref="J17:J41" si="5">C17</f>
         <v>11015</v>
       </c>
       <c r="K17">
-        <f>A17+U$24</f>
+        <f t="shared" si="2"/>
         <v>1210</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L41" si="2">D17</f>
+        <f t="shared" ref="L17:L41" si="6">D17</f>
         <v>10873</v>
       </c>
       <c r="M17">
-        <f>A17+U$27</f>
+        <f t="shared" si="3"/>
         <v>1210</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N41" si="3">E17</f>
+        <f t="shared" ref="N17:N41" si="7">E17</f>
         <v>10930</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O41" si="4">B$41/B17</f>
+        <f t="shared" ref="O17:O41" si="8">B$41/B17</f>
         <v>1.1307378904481666</v>
       </c>
       <c r="T17" t="s">
@@ -6662,39 +13957,39 @@
         <v>11050</v>
       </c>
       <c r="G18">
-        <f>A18+U$18</f>
+        <f t="shared" si="0"/>
         <v>1220</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11145</v>
       </c>
       <c r="I18">
-        <f>A18+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1220</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11050</v>
       </c>
       <c r="K18">
-        <f>A18+U$24</f>
+        <f t="shared" si="2"/>
         <v>1220</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10975</v>
       </c>
       <c r="M18">
-        <f>A18+U$27</f>
+        <f t="shared" si="3"/>
         <v>1220</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11050</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.120592193808883</v>
       </c>
       <c r="T18" t="s">
@@ -6721,39 +14016,39 @@
         <v>11160</v>
       </c>
       <c r="G19">
-        <f>A19+U$18</f>
+        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11260</v>
       </c>
       <c r="I19">
-        <f>A19+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1230</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11195</v>
       </c>
       <c r="K19">
-        <f>A19+U$24</f>
+        <f t="shared" si="2"/>
         <v>1230</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11090</v>
       </c>
       <c r="M19">
-        <f>A19+U$27</f>
+        <f t="shared" si="3"/>
         <v>1230</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11160</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1091474245115454</v>
       </c>
       <c r="T19" t="s">
@@ -6777,39 +14072,39 @@
         <v>11260</v>
       </c>
       <c r="G20">
-        <f>A20+U$18</f>
+        <f t="shared" si="0"/>
         <v>1240</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11339</v>
       </c>
       <c r="I20">
-        <f>A20+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1240</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11280</v>
       </c>
       <c r="K20">
-        <f>A20+U$24</f>
+        <f t="shared" si="2"/>
         <v>1240</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11250</v>
       </c>
       <c r="M20">
-        <f>A20+U$27</f>
+        <f t="shared" si="3"/>
         <v>1240</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11260</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.101419878296146</v>
       </c>
       <c r="T20" t="s">
@@ -6833,39 +14128,39 @@
         <v>11335</v>
       </c>
       <c r="G21">
-        <f>A21+U$18</f>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11455</v>
       </c>
       <c r="I21">
-        <f>A21+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11380</v>
       </c>
       <c r="K21">
-        <f>A21+U$24</f>
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11268</v>
       </c>
       <c r="M21">
-        <f>A21+U$27</f>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11335</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0902662592754255</v>
       </c>
       <c r="T21" t="s">
@@ -6892,39 +14187,39 @@
         <v>11415</v>
       </c>
       <c r="G22">
-        <f>A22+U$18</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11515</v>
       </c>
       <c r="I22">
-        <f>A22+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1260</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11445</v>
       </c>
       <c r="K22">
-        <f>A22+U$24</f>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11300</v>
       </c>
       <c r="M22">
-        <f>A22+U$27</f>
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11415</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0845853234910985</v>
       </c>
       <c r="T22" t="s">
@@ -6948,39 +14243,39 @@
         <v>11480</v>
       </c>
       <c r="G23">
-        <f>A23+U$18</f>
+        <f t="shared" si="0"/>
         <v>1270</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11590</v>
       </c>
       <c r="I23">
-        <f>A23+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1270</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11516</v>
       </c>
       <c r="K23">
-        <f>A23+U$24</f>
+        <f t="shared" si="2"/>
         <v>1270</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11364</v>
       </c>
       <c r="M23">
-        <f>A23+U$27</f>
+        <f t="shared" si="3"/>
         <v>1270</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11480</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0775668679896462</v>
       </c>
       <c r="T23" t="s">
@@ -7004,39 +14299,39 @@
         <v>11545</v>
       </c>
       <c r="G24">
-        <f>A24+U$18</f>
+        <f t="shared" si="0"/>
         <v>1280</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11648</v>
       </c>
       <c r="I24">
-        <f>A24+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1280</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11572</v>
       </c>
       <c r="K24">
-        <f>A24+U$24</f>
+        <f t="shared" si="2"/>
         <v>1280</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11420</v>
       </c>
       <c r="M24">
-        <f>A24+U$27</f>
+        <f t="shared" si="3"/>
         <v>1280</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11545</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0722012362637363</v>
       </c>
       <c r="T24" t="s">
@@ -7063,39 +14358,39 @@
         <v>11595</v>
       </c>
       <c r="G25">
-        <f>A25+U$18</f>
+        <f t="shared" si="0"/>
         <v>1290</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11712</v>
       </c>
       <c r="I25">
-        <f>A25+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1290</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11635</v>
       </c>
       <c r="K25">
-        <f>A25+U$24</f>
+        <f t="shared" si="2"/>
         <v>1290</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11475</v>
       </c>
       <c r="M25">
-        <f>A25+U$27</f>
+        <f t="shared" si="3"/>
         <v>1290</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11595</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0663422131147542</v>
       </c>
       <c r="T25" t="s">
@@ -7119,39 +14414,39 @@
         <v>11645</v>
       </c>
       <c r="G26">
-        <f>A26+U$18</f>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11760</v>
       </c>
       <c r="I26">
-        <f>A26+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1300</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11690</v>
       </c>
       <c r="K26">
-        <f>A26+U$24</f>
+        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11550</v>
       </c>
       <c r="M26">
-        <f>A26+U$27</f>
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11645</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0619897959183673</v>
       </c>
       <c r="T26" t="s">
@@ -7175,39 +14470,39 @@
         <v>11705</v>
       </c>
       <c r="G27">
-        <f>A27+U$18</f>
+        <f t="shared" si="0"/>
         <v>1310</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11815</v>
       </c>
       <c r="I27">
-        <f>A27+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1310</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11750</v>
       </c>
       <c r="K27">
-        <f>A27+U$24</f>
+        <f t="shared" si="2"/>
         <v>1310</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11608</v>
       </c>
       <c r="M27">
-        <f>A27+U$27</f>
+        <f t="shared" si="3"/>
         <v>1310</v>
       </c>
       <c r="N27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11705</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0570461278036394</v>
       </c>
       <c r="T27" t="s">
@@ -7234,39 +14529,39 @@
         <v>11763</v>
       </c>
       <c r="G28">
-        <f>A28+U$18</f>
+        <f t="shared" si="0"/>
         <v>1320</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11875</v>
       </c>
       <c r="I28">
-        <f>A28+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11795</v>
       </c>
       <c r="K28">
-        <f>A28+U$24</f>
+        <f t="shared" si="2"/>
         <v>1320</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11660</v>
       </c>
       <c r="M28">
-        <f>A28+U$27</f>
+        <f t="shared" si="3"/>
         <v>1320</v>
       </c>
       <c r="N28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11763</v>
       </c>
       <c r="O28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0517052631578947</v>
       </c>
     </row>
@@ -7287,39 +14582,39 @@
         <v>11815</v>
       </c>
       <c r="G29">
-        <f>A29+U$18</f>
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11920</v>
       </c>
       <c r="I29">
-        <f>A29+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1330</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11843</v>
       </c>
       <c r="K29">
-        <f>A29+U$24</f>
+        <f t="shared" si="2"/>
         <v>1330</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11705</v>
       </c>
       <c r="M29">
-        <f>A29+U$27</f>
+        <f t="shared" si="3"/>
         <v>1330</v>
       </c>
       <c r="N29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11815</v>
       </c>
       <c r="O29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0477348993288591</v>
       </c>
     </row>
@@ -7340,39 +14635,39 @@
         <v>11854</v>
       </c>
       <c r="G30">
-        <f>A30+U$18</f>
+        <f t="shared" si="0"/>
         <v>1340</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11965</v>
       </c>
       <c r="I30">
-        <f>A30+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1340</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11886</v>
       </c>
       <c r="K30">
-        <f>A30+U$24</f>
+        <f t="shared" si="2"/>
         <v>1340</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11755</v>
       </c>
       <c r="M30">
-        <f>A30+U$27</f>
+        <f t="shared" si="3"/>
         <v>1340</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11854</v>
       </c>
       <c r="O30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0437944003343085</v>
       </c>
     </row>
@@ -7393,39 +14688,39 @@
         <v>11896</v>
       </c>
       <c r="G31">
-        <f>A31+U$18</f>
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="I31">
-        <f>A31+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1350</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11924</v>
       </c>
       <c r="K31">
-        <f>A31+U$24</f>
+        <f t="shared" si="2"/>
         <v>1350</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11803</v>
       </c>
       <c r="M31">
-        <f>A31+U$27</f>
+        <f t="shared" si="3"/>
         <v>1350</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11896</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0407500000000001</v>
       </c>
     </row>
@@ -7446,39 +14741,39 @@
         <v>11931</v>
       </c>
       <c r="G32">
-        <f>A32+U$18</f>
+        <f t="shared" si="0"/>
         <v>1360</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12040</v>
       </c>
       <c r="I32">
-        <f>A32+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1360</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11963</v>
       </c>
       <c r="K32">
-        <f>A32+U$24</f>
+        <f t="shared" si="2"/>
         <v>1360</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11835</v>
       </c>
       <c r="M32">
-        <f>A32+U$27</f>
+        <f t="shared" si="3"/>
         <v>1360</v>
       </c>
       <c r="N32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11931</v>
       </c>
       <c r="O32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0372923588039866</v>
       </c>
     </row>
@@ -7499,39 +14794,39 @@
         <v>11968</v>
       </c>
       <c r="G33">
-        <f>A33+U$18</f>
+        <f t="shared" si="0"/>
         <v>1370</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12070</v>
       </c>
       <c r="I33">
-        <f>A33+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1370</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11995</v>
       </c>
       <c r="K33">
-        <f>A33+U$24</f>
+        <f t="shared" si="2"/>
         <v>1370</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11875</v>
       </c>
       <c r="M33">
-        <f>A33+U$27</f>
+        <f t="shared" si="3"/>
         <v>1370</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11968</v>
       </c>
       <c r="O33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0347141673570837</v>
       </c>
     </row>
@@ -7552,39 +14847,39 @@
         <v>11995</v>
       </c>
       <c r="G34">
-        <f>A34+U$18</f>
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12100</v>
       </c>
       <c r="I34">
-        <f>A34+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1380</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12025</v>
       </c>
       <c r="K34">
-        <f>A34+U$24</f>
+        <f t="shared" si="2"/>
         <v>1380</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11900</v>
       </c>
       <c r="M34">
-        <f>A34+U$27</f>
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11995</v>
       </c>
       <c r="O34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0321487603305786</v>
       </c>
     </row>
@@ -7605,39 +14900,39 @@
         <v>12025</v>
       </c>
       <c r="G35">
-        <f>A35+U$18</f>
+        <f t="shared" si="0"/>
         <v>1390</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12130</v>
       </c>
       <c r="I35">
-        <f>A35+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1390</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12056</v>
       </c>
       <c r="K35">
-        <f>A35+U$24</f>
+        <f t="shared" si="2"/>
         <v>1390</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11934</v>
       </c>
       <c r="M35">
-        <f>A35+U$27</f>
+        <f t="shared" si="3"/>
         <v>1390</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12025</v>
       </c>
       <c r="O35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0295960428689199</v>
       </c>
     </row>
@@ -7658,39 +14953,39 @@
         <v>12057</v>
       </c>
       <c r="G36">
-        <f>A36+U$18</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12160</v>
       </c>
       <c r="I36">
-        <f>A36+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12081</v>
       </c>
       <c r="K36">
-        <f>A36+U$24</f>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11963</v>
       </c>
       <c r="M36">
-        <f>A36+U$27</f>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12057</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0270559210526315</v>
       </c>
     </row>
@@ -7711,7 +15006,7 @@
         <v>12085</v>
       </c>
       <c r="G37">
-        <f>A37+U$18</f>
+        <f t="shared" si="0"/>
         <v>1410</v>
       </c>
       <c r="H37">
@@ -7719,7 +15014,7 @@
         <v>12190</v>
       </c>
       <c r="I37">
-        <f>A37+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1410</v>
       </c>
       <c r="J37">
@@ -7727,23 +15022,23 @@
         <v>12110</v>
       </c>
       <c r="K37">
-        <f>A37+U$24</f>
+        <f t="shared" si="2"/>
         <v>1410</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11995</v>
       </c>
       <c r="M37">
-        <f>A37+U$27</f>
+        <f t="shared" si="3"/>
         <v>1410</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12085</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0245283018867926</v>
       </c>
     </row>
@@ -7764,39 +15059,39 @@
         <v>12115</v>
       </c>
       <c r="G38">
-        <f>A38+U$18</f>
+        <f t="shared" si="0"/>
         <v>1420</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12225</v>
       </c>
       <c r="I38">
-        <f>A38+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1420</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12132</v>
       </c>
       <c r="K38">
-        <f>A38+U$24</f>
+        <f t="shared" si="2"/>
         <v>1420</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12025</v>
       </c>
       <c r="M38">
-        <f>A38+U$27</f>
+        <f t="shared" si="3"/>
         <v>1420</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12115</v>
       </c>
       <c r="O38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0215950920245398</v>
       </c>
     </row>
@@ -7817,39 +15112,39 @@
         <v>12160</v>
       </c>
       <c r="G39">
-        <f>A39+U$18</f>
+        <f t="shared" si="0"/>
         <v>1430</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12280</v>
       </c>
       <c r="I39">
-        <f>A39+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1430</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12163</v>
       </c>
       <c r="K39">
-        <f>A39+U$24</f>
+        <f t="shared" si="2"/>
         <v>1430</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12070</v>
       </c>
       <c r="M39">
-        <f>A39+U$27</f>
+        <f t="shared" si="3"/>
         <v>1430</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12160</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0170195439739413</v>
       </c>
     </row>
@@ -7870,39 +15165,39 @@
         <v>12230</v>
       </c>
       <c r="G40">
-        <f>A40+U$18</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12365</v>
       </c>
       <c r="I40">
-        <f>A40+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1440</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12203</v>
       </c>
       <c r="K40">
-        <f>A40+U$24</f>
+        <f t="shared" si="2"/>
         <v>1440</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12145</v>
       </c>
       <c r="M40">
-        <f>A40+U$27</f>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12230</v>
       </c>
       <c r="O40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0100283057015771</v>
       </c>
     </row>
@@ -7923,39 +15218,39 @@
         <v>12370</v>
       </c>
       <c r="G41">
-        <f>A41+U$18</f>
+        <f t="shared" si="0"/>
         <v>1450</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12489</v>
       </c>
       <c r="I41">
-        <f>A41+$U$21</f>
+        <f t="shared" si="1"/>
         <v>1450</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12260</v>
       </c>
       <c r="K41">
-        <f>A41+U$24</f>
+        <f t="shared" si="2"/>
         <v>1450</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12283</v>
       </c>
       <c r="M41">
-        <f>A41+U$27</f>
+        <f t="shared" si="3"/>
         <v>1450</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12370</v>
       </c>
       <c r="O41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7973,7 +15268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB385E81-38C0-403C-AEB8-A93328095EDA}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -8080,7 +15375,7 @@
         <v>12410</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D26" si="0">(B3+C3)/2</f>
+        <f t="shared" ref="D3:D14" si="0">(B3+C3)/2</f>
         <v>12395</v>
       </c>
       <c r="E3">
@@ -8090,7 +15385,7 @@
         <v>12220</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G26" si="1">(E3+F3)/2</f>
+        <f t="shared" ref="G3:G14" si="1">(E3+F3)/2</f>
         <v>12222.5</v>
       </c>
       <c r="H3">
@@ -8100,7 +15395,7 @@
         <v>12113</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J26" si="2">(H3+I3)/2</f>
+        <f t="shared" ref="J3:J14" si="2">(H3+I3)/2</f>
         <v>12103.5</v>
       </c>
       <c r="K3">
@@ -8110,7 +15405,7 @@
         <v>12208</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M26" si="3">(K3+L3)/2</f>
+        <f t="shared" ref="M3:M14" si="3">(K3+L3)/2</f>
         <v>12197.5</v>
       </c>
       <c r="N3">
@@ -9209,7 +16504,7 @@
         <v>4.28</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="E10:M10" si="4">(G8-G3)/(1350-1300)</f>
+        <f t="shared" ref="G10:M10" si="4">(G8-G3)/(1350-1300)</f>
         <v>4.5599999999999996</v>
       </c>
       <c r="J10">
@@ -9557,7 +16852,7 @@
         <v>6.03</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="E8:M8" si="4">(G7-G2)/($A7-$A2)</f>
+        <f t="shared" ref="G8:M8" si="4">(G7-G2)/($A7-$A2)</f>
         <v>5.97</v>
       </c>
       <c r="J8">
@@ -9593,4 +16888,717 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CA9EF5-A301-46E1-B959-314FACBAB303}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1200</v>
+      </c>
+      <c r="B2">
+        <v>3956</v>
+      </c>
+      <c r="C2">
+        <v>3930</v>
+      </c>
+      <c r="D2">
+        <v>3912</v>
+      </c>
+      <c r="E2">
+        <v>3869</v>
+      </c>
+      <c r="F2">
+        <f>B2/$A2</f>
+        <v>3.2966666666666669</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:I2" si="0">C2/$A2</f>
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>3.26</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>3.2241666666666666</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(F2:I2)</f>
+        <v>3.2639583333333335</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1220</v>
+      </c>
+      <c r="B3">
+        <v>4058</v>
+      </c>
+      <c r="C3">
+        <v>4101</v>
+      </c>
+      <c r="D3">
+        <v>4085</v>
+      </c>
+      <c r="E3">
+        <v>4025</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F23" si="1">B3/$A3</f>
+        <v>3.3262295081967213</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="2">C3/$A3</f>
+        <v>3.3614754098360655</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="3">D3/$A3</f>
+        <v>3.348360655737705</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="4">E3/$A3</f>
+        <v>3.2991803278688523</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J23" si="5">AVERAGE(F3:I3)</f>
+        <v>3.3338114754098358</v>
+      </c>
+      <c r="K3">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1240</v>
+      </c>
+      <c r="B4">
+        <v>4298</v>
+      </c>
+      <c r="C4">
+        <v>4257</v>
+      </c>
+      <c r="D4">
+        <v>4303</v>
+      </c>
+      <c r="E4">
+        <v>4312</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3.4661290322580647</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>3.4330645161290323</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>3.4701612903225807</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>3.4774193548387098</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>3.461693548387097</v>
+      </c>
+      <c r="K4">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1260</v>
+      </c>
+      <c r="B5">
+        <v>4489</v>
+      </c>
+      <c r="C5">
+        <v>4445</v>
+      </c>
+      <c r="D5">
+        <v>4460</v>
+      </c>
+      <c r="E5">
+        <v>4449</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.5626984126984129</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>3.5277777777777777</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>3.5396825396825395</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>3.5309523809523808</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>3.5402777777777779</v>
+      </c>
+      <c r="K5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1200</v>
+      </c>
+      <c r="B8">
+        <v>3898</v>
+      </c>
+      <c r="C8">
+        <v>3832</v>
+      </c>
+      <c r="D8">
+        <v>3801</v>
+      </c>
+      <c r="E8">
+        <v>3803</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.2483333333333335</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="6">C8/$A8</f>
+        <v>3.1933333333333334</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H11" si="7">D8/$A8</f>
+        <v>3.1675</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="8">E8/$A8</f>
+        <v>3.1691666666666665</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>3.1945833333333331</v>
+      </c>
+      <c r="K8">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>1220</v>
+      </c>
+      <c r="B9">
+        <v>3993</v>
+      </c>
+      <c r="C9">
+        <v>3958</v>
+      </c>
+      <c r="D9">
+        <v>4006</v>
+      </c>
+      <c r="E9">
+        <v>4004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.2729508196721313</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>3.2442622950819673</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>3.2836065573770492</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>3.2819672131147541</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>3.2706967213114755</v>
+      </c>
+      <c r="K9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1240</v>
+      </c>
+      <c r="B10">
+        <v>4240</v>
+      </c>
+      <c r="C10">
+        <v>4178</v>
+      </c>
+      <c r="D10">
+        <v>4197</v>
+      </c>
+      <c r="E10">
+        <v>4193</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.4193548387096775</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>3.3693548387096772</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>3.3846774193548388</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>3.3814516129032257</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>3.3887096774193548</v>
+      </c>
+      <c r="K10">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1260</v>
+      </c>
+      <c r="B11">
+        <v>4416</v>
+      </c>
+      <c r="C11">
+        <v>4320</v>
+      </c>
+      <c r="D11">
+        <v>4375</v>
+      </c>
+      <c r="E11">
+        <v>4413</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3.5047619047619047</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>3.5023809523809524</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>3.4769841269841271</v>
+      </c>
+      <c r="K11">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>3747</v>
+      </c>
+      <c r="C14">
+        <v>3685</v>
+      </c>
+      <c r="D14">
+        <v>3711</v>
+      </c>
+      <c r="E14">
+        <v>3740</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.1225000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G17" si="9">C14/$A14</f>
+        <v>3.0708333333333333</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="10">D14/$A14</f>
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I17" si="11">E14/$A14</f>
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>3.100625</v>
+      </c>
+      <c r="K14">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>1220</v>
+      </c>
+      <c r="B15">
+        <v>3935</v>
+      </c>
+      <c r="C15">
+        <v>3893</v>
+      </c>
+      <c r="D15">
+        <v>3930</v>
+      </c>
+      <c r="E15">
+        <v>3936</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.2254098360655736</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>3.1909836065573769</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="10"/>
+        <v>3.221311475409836</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="11"/>
+        <v>3.2262295081967212</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>3.2159836065573773</v>
+      </c>
+      <c r="K15">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>1240</v>
+      </c>
+      <c r="B16">
+        <v>4137</v>
+      </c>
+      <c r="C16">
+        <v>4070</v>
+      </c>
+      <c r="D16">
+        <v>4118</v>
+      </c>
+      <c r="E16">
+        <v>4127</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3.3362903225806453</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>3.282258064516129</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="10"/>
+        <v>3.3209677419354837</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="11"/>
+        <v>3.3282258064516128</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>3.3169354838709677</v>
+      </c>
+      <c r="K16">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>1260</v>
+      </c>
+      <c r="B17">
+        <v>4340</v>
+      </c>
+      <c r="C17">
+        <v>4254</v>
+      </c>
+      <c r="D17">
+        <v>4315</v>
+      </c>
+      <c r="E17">
+        <v>4350</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>3.3761904761904762</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="10"/>
+        <v>3.4246031746031744</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="11"/>
+        <v>3.4523809523809526</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>3.424404761904762</v>
+      </c>
+      <c r="K17">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>1200</v>
+      </c>
+      <c r="B20">
+        <v>3671</v>
+      </c>
+      <c r="C20">
+        <v>3641</v>
+      </c>
+      <c r="D20">
+        <v>3668</v>
+      </c>
+      <c r="E20">
+        <v>3634</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3.0591666666666666</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G23" si="12">C20/$A20</f>
+        <v>3.0341666666666667</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H23" si="13">D20/$A20</f>
+        <v>3.0566666666666666</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I23" si="14">E20/$A20</f>
+        <v>3.0283333333333333</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>3.0445833333333336</v>
+      </c>
+      <c r="K20">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>1220</v>
+      </c>
+      <c r="B21">
+        <v>3871</v>
+      </c>
+      <c r="C21">
+        <v>3853</v>
+      </c>
+      <c r="D21">
+        <v>3923</v>
+      </c>
+      <c r="E21">
+        <v>3844</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.1729508196721312</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="12"/>
+        <v>3.1581967213114752</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>3.2155737704918033</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="14"/>
+        <v>3.1508196721311474</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>3.1743852459016391</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>1240</v>
+      </c>
+      <c r="B22">
+        <v>4065</v>
+      </c>
+      <c r="C22">
+        <v>4039</v>
+      </c>
+      <c r="D22">
+        <v>4130</v>
+      </c>
+      <c r="E22">
+        <v>4072</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.278225806451613</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="12"/>
+        <v>3.2572580645161291</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="13"/>
+        <v>3.3306451612903225</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="14"/>
+        <v>3.2838709677419353</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>3.2874999999999996</v>
+      </c>
+      <c r="K22">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>1260</v>
+      </c>
+      <c r="B23">
+        <v>4253</v>
+      </c>
+      <c r="C23">
+        <v>4270</v>
+      </c>
+      <c r="D23">
+        <v>4282</v>
+      </c>
+      <c r="E23">
+        <v>4306</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3.3753968253968254</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="12"/>
+        <v>3.3888888888888888</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="13"/>
+        <v>3.3984126984126983</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="14"/>
+        <v>3.4174603174603173</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>3.3950396825396827</v>
+      </c>
+      <c r="K23">
+        <v>10.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Rotor Calibration.xlsx
+++ b/Rotor Calibration.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evans\OneDrive\527\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2646" documentId="11_F25DC773A252ABDACC1048BF219E5ADE5BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{008107CA-C4E9-4977-88C6-F5B3468351C8}"/>
+  <xr:revisionPtr revIDLastSave="2722" documentId="11_F25DC773A252ABDACC1048BF219E5ADE5BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43036645-FD01-41B0-88AF-C38E7C4991E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3366" windowWidth="17280" windowHeight="8994" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6252" yWindow="2100" windowWidth="13332" windowHeight="8994" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>Rotor 1</t>
   </si>
@@ -143,6 +146,24 @@
   <si>
     <t>V12.4</t>
   </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>11.5V</t>
+  </si>
+  <si>
+    <t>11.1V</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>11V</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
 </sst>
 </file>
 
@@ -163,15 +184,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,12 +206,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1896,6 +1940,1425 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RPM vs PWM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46589833843561335"/>
+                  <c:y val="2.8667719609719354E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C32E-4080-B119-A4DAD17E7CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47496774549865878"/>
+                  <c:y val="5.9905030172838934E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C32E-4080-B119-A4DAD17E7CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.48773995004967419"/>
+                  <c:y val="0.12003704514973695"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C32E-4080-B119-A4DAD17E7CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rotor 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46335368465533439"/>
+                  <c:y val="0.20289085387020619"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C32E-4080-B119-A4DAD17E7CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556941080"/>
+        <c:axId val="562525160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556941080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PWM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562525160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="562525160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556941080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet8!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet8!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3872.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3923.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3990.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4067.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF33-4AAB-9052-46740D28FDB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="729865680"/>
+        <c:axId val="729868304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="729865680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729868304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="729868304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729865680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5398,6 +6861,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RPM vs PWM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5703,6 +7221,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$A$14:$A$17</c:f>
@@ -5784,6 +7316,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PWM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5846,6 +7433,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rotation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Speed [RPM]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7359,6 +9006,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8750,6 +10477,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13114,15 +15873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13250,6 +16009,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177164</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281939</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F8C2F3-4FEE-4C9A-B680-D512C8D1F67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAED2599-CEE0-424C-820D-6224A2E50B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13546,8 +16387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16088,6 +18929,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F53C2B-34CF-4F31-B72B-D65A7FB87350}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10900</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10883</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10760</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>1210</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11045</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11015</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10873</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>1220</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11145</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11050</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10975</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11260</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11195</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11090</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11339</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11280</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11250</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11455</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11380</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11268</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E1B415-2D0B-4612-A801-E9C87EB23DC1}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -16522,7 +19495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F581F75E-A5D6-4A4A-9BD8-3B5E7BAF7314}">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -16890,17 +19863,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CA9EF5-A301-46E1-B959-314FACBAB303}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -17075,6 +20051,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -17249,6 +20228,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -17423,6 +20405,9 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -17601,4 +20586,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB73A5CB-5E68-400A-B993-DF908C8365CB}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1200</v>
+      </c>
+      <c r="B2">
+        <v>3747</v>
+      </c>
+      <c r="C2">
+        <v>3685</v>
+      </c>
+      <c r="D2">
+        <v>3711</v>
+      </c>
+      <c r="E2">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1220</v>
+      </c>
+      <c r="B3">
+        <v>3935</v>
+      </c>
+      <c r="C3">
+        <v>3893</v>
+      </c>
+      <c r="D3">
+        <v>3930</v>
+      </c>
+      <c r="E3">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1240</v>
+      </c>
+      <c r="B4">
+        <v>4137</v>
+      </c>
+      <c r="C4">
+        <v>4070</v>
+      </c>
+      <c r="D4">
+        <v>4118</v>
+      </c>
+      <c r="E4">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1260</v>
+      </c>
+      <c r="B5">
+        <v>4340</v>
+      </c>
+      <c r="C5">
+        <v>4254</v>
+      </c>
+      <c r="D5">
+        <v>4315</v>
+      </c>
+      <c r="E5">
+        <v>4350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C70B8A6-7763-4CD9-AD30-92854DB6A500}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>10.8</v>
+      </c>
+      <c r="B2">
+        <v>3871</v>
+      </c>
+      <c r="C2">
+        <v>3853</v>
+      </c>
+      <c r="D2">
+        <v>3923</v>
+      </c>
+      <c r="E2">
+        <v>3844</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>3872.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>11.1</v>
+      </c>
+      <c r="B3">
+        <v>3935</v>
+      </c>
+      <c r="C3">
+        <v>3893</v>
+      </c>
+      <c r="D3">
+        <v>3930</v>
+      </c>
+      <c r="E3">
+        <v>3936</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
+        <v>3923.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>11.5</v>
+      </c>
+      <c r="B4">
+        <v>3993</v>
+      </c>
+      <c r="C4">
+        <v>3958</v>
+      </c>
+      <c r="D4">
+        <v>4006</v>
+      </c>
+      <c r="E4">
+        <v>4004</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3990.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4058</v>
+      </c>
+      <c r="C5">
+        <v>4101</v>
+      </c>
+      <c r="D5">
+        <v>4085</v>
+      </c>
+      <c r="E5">
+        <v>4025</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4067.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>